--- a/realme/SEPTEMBER/All Details/30.09.2021/realme Bank Statement September-2021.xlsx
+++ b/realme/SEPTEMBER/All Details/30.09.2021/realme Bank Statement September-2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\SEPTEMBER\All Details\30.09.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\September\All Details\30.09.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sep 2021" sheetId="7" r:id="rId1"/>
@@ -2638,12 +2638,45 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2654,39 +2687,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4230,9 +4230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4244,67 +4244,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="278"/>
-      <c r="C1" s="278"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
-      <c r="N1" s="278"/>
-      <c r="O1" s="278"/>
-      <c r="P1" s="278"/>
-      <c r="Q1" s="278"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="273" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="274" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="282"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="275"/>
+      <c r="M3" s="275"/>
+      <c r="N3" s="275"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="276"/>
       <c r="S3" s="50"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4313,52 +4313,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="122" customFormat="1">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="272" t="s">
+      <c r="C4" s="281" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="281" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="272" t="s">
+      <c r="E4" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="272" t="s">
+      <c r="F4" s="281" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="272" t="s">
+      <c r="G4" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="272" t="s">
+      <c r="H4" s="281" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="272" t="s">
+      <c r="I4" s="281" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="272" t="s">
+      <c r="J4" s="281" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="272" t="s">
+      <c r="K4" s="281" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="272" t="s">
+      <c r="L4" s="281" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="272" t="s">
+      <c r="M4" s="281" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="276" t="s">
+      <c r="N4" s="287" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="274" t="s">
+      <c r="O4" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="287" t="s">
+      <c r="P4" s="283" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -4371,22 +4371,22 @@
       <c r="W4" s="124"/>
     </row>
     <row r="5" spans="1:24" s="122" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="284"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="275"/>
-      <c r="P5" s="288"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="286"/>
+      <c r="P5" s="284"/>
       <c r="Q5" s="126" t="s">
         <v>43</v>
       </c>
@@ -5301,11 +5301,13 @@
       <c r="L31" s="139"/>
       <c r="M31" s="170"/>
       <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
+      <c r="O31" s="139">
+        <v>22400</v>
+      </c>
       <c r="P31" s="141"/>
       <c r="Q31" s="135">
         <f t="shared" si="0"/>
-        <v>830</v>
+        <v>23230</v>
       </c>
       <c r="R31" s="136"/>
     </row>
@@ -5482,7 +5484,7 @@
       </c>
       <c r="O37" s="157">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22400</v>
       </c>
       <c r="P37" s="158">
         <f t="shared" si="1"/>
@@ -5490,7 +5492,7 @@
       </c>
       <c r="Q37" s="159">
         <f>SUM(Q6:Q36)</f>
-        <v>17385</v>
+        <v>39785</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7492,6 +7494,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7508,9 +7513,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17677,7 +17679,7 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
